--- a/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AED2BBD-A66A-4685-B70B-3B6509720FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB32853-B85D-4ED1-9D66-9F83F1E9D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F12890B-427C-45CD-B353-512C18AC0E07}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{476BF687-10BF-4BA3-A43A-AED3C3235091}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,87%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>32,14%</t>
   </si>
   <si>
     <t>No utilizo enema o supositorio</t>
@@ -104,10 +104,10 @@
     <t>35,33%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -116,16 +116,16 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>34,71%</t>
+    <t>34,33%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>Sí, por otro</t>
@@ -143,19 +143,19 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>Sí, con ayuda</t>
@@ -164,25 +164,25 @@
     <t>22,05%</t>
   </si>
   <si>
-    <t>53,65%</t>
+    <t>57,64%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>Sí, por sí solo/a</t>
@@ -191,25 +191,25 @@
     <t>16,75%</t>
   </si>
   <si>
-    <t>48,0%</t>
+    <t>48,03%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -221,7 +221,7 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>32,25%</t>
+    <t>32,66%</t>
   </si>
   <si>
     <t>4,91%</t>
@@ -233,16 +233,16 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>17,95%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>45,1%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>58,6%</t>
@@ -257,10 +257,10 @@
     <t>52,05%</t>
   </si>
   <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -275,7 +275,7 @@
     <t>14,13%</t>
   </si>
   <si>
-    <t>43,26%</t>
+    <t>44,88%</t>
   </si>
   <si>
     <t>32,48%</t>
@@ -290,19 +290,19 @@
     <t>23,57%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>4,02%</t>
@@ -314,10 +314,10 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -338,55 +338,52 @@
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>33,69%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -395,73 +392,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7FEF32-858A-4BC3-B2C2-74B57242B71A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D27D94-446B-4BC1-A8EB-A4FC531D4EE8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1915,10 +1912,10 @@
         <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -1927,13 +1924,13 @@
         <v>8876</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -1942,13 +1939,13 @@
         <v>11303</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1960,13 @@
         <v>6506</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -1978,13 +1975,13 @@
         <v>14767</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -1993,13 +1990,13 @@
         <v>21272</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2017,7 @@
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2029,13 +2026,13 @@
         <v>2374</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2044,13 +2041,13 @@
         <v>2374</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2062,13 @@
         <v>2786</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2080,13 +2077,13 @@
         <v>13753</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2095,13 +2092,13 @@
         <v>16539</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2113,13 @@
         <v>4181</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -2131,13 +2128,13 @@
         <v>10506</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -2146,13 +2143,13 @@
         <v>14686</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,7 +2205,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB32853-B85D-4ED1-9D66-9F83F1E9D551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A728432-A1EC-4C5D-BA94-6478CE4AFB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{476BF687-10BF-4BA3-A43A-AED3C3235091}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A0F8874-D9E2-4524-B3E9-3B5F99966CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -873,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D27D94-446B-4BC1-A8EB-A4FC531D4EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C703B7-FCF7-41A2-B95E-59338D533629}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A728432-A1EC-4C5D-BA94-6478CE4AFB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E3CEF6-687A-4A61-807A-5FC932ED5FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A0F8874-D9E2-4524-B3E9-3B5F99966CC5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59923FFB-CD89-401F-82C8-6FEA8760B460}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,87%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>No utilizo enema o supositorio</t>
@@ -104,10 +104,10 @@
     <t>35,33%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -116,16 +116,16 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>34,33%</t>
+    <t>34,71%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>Sí, por otro</t>
@@ -143,19 +143,19 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>Sí, con ayuda</t>
@@ -164,25 +164,25 @@
     <t>22,05%</t>
   </si>
   <si>
-    <t>57,64%</t>
+    <t>53,65%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>Sí, por sí solo/a</t>
@@ -191,25 +191,25 @@
     <t>16,75%</t>
   </si>
   <si>
-    <t>48,03%</t>
+    <t>48,0%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -221,7 +221,7 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>32,66%</t>
+    <t>32,25%</t>
   </si>
   <si>
     <t>4,91%</t>
@@ -233,16 +233,16 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>17,95%</t>
   </si>
   <si>
     <t>45,1%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>58,6%</t>
@@ -257,10 +257,10 @@
     <t>52,05%</t>
   </si>
   <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -275,7 +275,7 @@
     <t>14,13%</t>
   </si>
   <si>
-    <t>44,88%</t>
+    <t>43,26%</t>
   </si>
   <si>
     <t>32,48%</t>
@@ -290,19 +290,19 @@
     <t>23,57%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>4,02%</t>
@@ -314,10 +314,10 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -338,52 +338,55 @@
     <t>15,27%</t>
   </si>
   <si>
-    <t>33,69%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -392,73 +395,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -873,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C703B7-FCF7-41A2-B95E-59338D533629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046C94B-22F0-40EF-A241-B503DA4088D9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1912,10 +1915,10 @@
         <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -1924,13 +1927,13 @@
         <v>8876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -1939,13 +1942,13 @@
         <v>11303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,13 +1963,13 @@
         <v>6506</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -1975,13 +1978,13 @@
         <v>14767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -1990,13 +1993,13 @@
         <v>21272</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2020,7 @@
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2026,13 +2029,13 @@
         <v>2374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2041,13 +2044,13 @@
         <v>2374</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2065,13 @@
         <v>2786</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2077,13 +2080,13 @@
         <v>13753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2092,13 +2095,13 @@
         <v>16539</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2116,13 @@
         <v>4181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -2128,13 +2131,13 @@
         <v>10506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -2143,13 +2146,13 @@
         <v>14686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,7 +2208,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E3CEF6-687A-4A61-807A-5FC932ED5FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{747930E4-25DF-4819-9DEF-9A4B1DD363FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59923FFB-CD89-401F-82C8-6FEA8760B460}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{895D7E2F-8C2E-4579-9A09-8E22753D6B23}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="141">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>No soy capaz de usarlo</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>No utilizo enema o supositorio</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>Sí, por otro</t>
@@ -140,328 +140,322 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>Sí, con ayuda</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>Sí, por sí solo/a</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Sí, con ayuda</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>Sí, por sí solo/a</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
     <t>13,87%</t>
   </si>
   <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>24,47%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046C94B-22F0-40EF-A241-B503DA4088D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEFEA6F-0670-46AF-B1E7-7D294C75567B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -997,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1762</v>
+        <v>1673</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>8403</v>
+        <v>7451</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1021,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>10165</v>
+        <v>9124</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>2405</v>
+        <v>2164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>9122</v>
+        <v>8069</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>11527</v>
+        <v>10233</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1114,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1129,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1150,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1501</v>
+        <v>1237</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1165,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>10624</v>
+        <v>7769</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1180,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>12126</v>
+        <v>9006</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1201,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1140</v>
+        <v>1062</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1216,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>9497</v>
+        <v>8190</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
@@ -1231,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>10637</v>
+        <v>9252</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>55</v>
@@ -1252,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>6809</v>
+        <v>6135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -1267,7 +1261,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>40020</v>
+        <v>33443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -1282,7 +1276,7 @@
         <v>74</v>
       </c>
       <c r="N9" s="7">
-        <v>46828</v>
+        <v>39579</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1305,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1320,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1335,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1139</v>
+        <v>1074</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
@@ -1356,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4100</v>
+        <v>3794</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
@@ -1371,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>5646</v>
+        <v>5092</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>69</v>
@@ -1386,7 +1380,7 @@
         <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>9746</v>
+        <v>8886</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>72</v>
@@ -1458,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1284</v>
+        <v>1114</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>78</v>
@@ -1473,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3129</v>
+        <v>2642</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>80</v>
@@ -1488,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>4413</v>
+        <v>3756</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>83</v>
@@ -1509,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>3040</v>
+        <v>2806</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>86</v>
@@ -1524,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>89</v>
@@ -1539,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>3428</v>
+        <v>3159</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>91</v>
@@ -1560,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>9091</v>
+        <v>8347</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -1575,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="7">
-        <v>9634</v>
+        <v>8528</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -1590,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="N15" s="7">
-        <v>18725</v>
+        <v>16875</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -1822,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>97</v>
@@ -1837,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>97</v>
@@ -1871,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -1886,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -1909,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>2428</v>
+        <v>2306</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>99</v>
@@ -1918,37 +1912,37 @@
         <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>8876</v>
+        <v>7893</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>11303</v>
+        <v>10198</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,46 +1954,46 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>6506</v>
+        <v>5958</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>14767</v>
+        <v>13161</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
       </c>
       <c r="N23" s="7">
-        <v>21272</v>
+        <v>19119</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,37 +2014,37 @@
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,46 +2056,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>2786</v>
+        <v>2351</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>13753</v>
+        <v>10411</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
       </c>
       <c r="N25" s="7">
-        <v>16539</v>
+        <v>12762</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,46 +2107,46 @@
         <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>4181</v>
+        <v>3868</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
       </c>
       <c r="I26" s="7">
-        <v>10506</v>
+        <v>9123</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
       </c>
       <c r="N26" s="7">
-        <v>14686</v>
+        <v>12991</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,7 +2158,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="7">
-        <v>15900</v>
+        <v>14483</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -2179,7 +2173,7 @@
         <v>83</v>
       </c>
       <c r="I27" s="7">
-        <v>50275</v>
+        <v>42551</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -2194,7 +2188,7 @@
         <v>108</v>
       </c>
       <c r="N27" s="7">
-        <v>66174</v>
+        <v>57033</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2208,7 +2202,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
